--- a/data/trans_orig/P16B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE3F7B9-B863-43BE-90C4-651BF727B38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAF2B2E4-E590-420B-9D9D-4E2AFE63AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0243E16B-84D0-46F6-9620-E45701A671D6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D052012A-8091-4DB9-A0EF-ED008FE055D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="161">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -76,370 +76,364 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>97,48%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -938,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412BA7D4-8E9F-40AF-BD30-7F0A32DBABE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330FDA84-9EFA-43E4-A36E-B1562FC1D595}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1689,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114EE971-8974-4F7A-ABAC-D8946C4B1618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585FC411-1E24-4426-8823-91ADEE37525B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1971,7 +1965,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -1986,7 +1980,7 @@
         <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>53</v>
@@ -1998,10 +1992,10 @@
         <v>327843</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>53</v>
@@ -2022,10 +2016,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2034,13 +2028,13 @@
         <v>1002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2049,13 +2043,13 @@
         <v>1002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,7 +2120,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2141,7 +2135,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2156,7 +2150,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2177,10 +2171,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2192,10 +2186,10 @@
         <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2207,10 +2201,10 @@
         <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2275,7 @@
         <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>53</v>
@@ -2293,13 +2287,13 @@
         <v>735255</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>1197</v>
@@ -2308,13 +2302,13 @@
         <v>1300429</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2323,13 @@
         <v>977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2344,13 +2338,13 @@
         <v>3031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2359,13 +2353,13 @@
         <v>4009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6C5108-21D4-4A62-9EDC-1C3E1D8A1CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E0DFBE-E530-4F9C-BCA0-E4158F058C79}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2457,7 +2451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2567,7 +2561,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -2582,7 +2576,7 @@
         <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>53</v>
@@ -2594,10 +2588,10 @@
         <v>602152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>53</v>
@@ -2618,10 +2612,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2636,7 +2630,7 @@
         <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2645,13 +2639,13 @@
         <v>1089</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2716,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -2734,10 +2728,10 @@
         <v>206390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>53</v>
@@ -2749,10 +2743,10 @@
         <v>425298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>53</v>
@@ -2773,10 +2767,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2785,13 +2779,13 @@
         <v>973</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2800,13 +2794,13 @@
         <v>973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,7 +2871,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2892,7 +2886,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2907,7 +2901,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2928,10 +2922,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2943,10 +2937,10 @@
         <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2958,10 +2952,10 @@
         <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3026,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -3044,10 +3038,10 @@
         <v>612408</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
@@ -3059,10 +3053,10 @@
         <v>1108684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>53</v>
@@ -3083,10 +3077,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3095,13 +3089,13 @@
         <v>2062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3110,13 +3104,13 @@
         <v>2062</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAF2B2E4-E590-420B-9D9D-4E2AFE63AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7ED436-25C1-4C9C-BF11-FFD3EC531EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D052012A-8091-4DB9-A0EF-ED008FE055D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE753E70-6337-4982-8C6C-6807D6352607}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="167">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -76,337 +76,361 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2012 (Tasa respuesta: 18,47%)</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -415,112 +439,106 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la tensión arterial recetados en 2015 (Tasa respuesta: 15,54%)</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>98,55%</t>
+    <t>98,56%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>0,65%</t>
   </si>
 </sst>
 </file>
@@ -932,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330FDA84-9EFA-43E4-A36E-B1562FC1D595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94A72C0-A9AF-4A5F-9B36-679B4DF5C2A0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1683,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585FC411-1E24-4426-8823-91ADEE37525B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE7E873-2AC7-4817-9090-39CCEBDFE84C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1965,7 +1983,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -1977,10 +1995,10 @@
         <v>144069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>53</v>
@@ -1992,10 +2010,10 @@
         <v>327843</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>53</v>
@@ -2016,10 +2034,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2028,13 +2046,13 @@
         <v>1002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2043,13 +2061,13 @@
         <v>1002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,7 +2138,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2135,7 +2153,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2150,7 +2168,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2171,10 +2189,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2186,10 +2204,10 @@
         <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2201,10 +2219,10 @@
         <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,10 +2290,10 @@
         <v>565176</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>53</v>
@@ -2287,13 +2305,13 @@
         <v>735255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
         <v>1197</v>
@@ -2302,13 +2320,13 @@
         <v>1300429</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2341,13 @@
         <v>977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2338,13 +2356,13 @@
         <v>3031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2353,13 +2371,13 @@
         <v>4009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E0DFBE-E530-4F9C-BCA0-E4158F058C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9475A85-27FE-4554-A9DC-0F23BA0C6A97}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2451,7 +2469,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2561,7 +2579,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -2576,7 +2594,7 @@
         <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>53</v>
@@ -2588,10 +2606,10 @@
         <v>602152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>53</v>
@@ -2612,10 +2630,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2630,7 +2648,7 @@
         <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2639,13 +2657,13 @@
         <v>1089</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2734,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -2728,10 +2746,10 @@
         <v>206390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>53</v>
@@ -2743,10 +2761,10 @@
         <v>425298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>53</v>
@@ -2767,10 +2785,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2779,13 +2797,13 @@
         <v>973</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2794,13 +2812,13 @@
         <v>973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,7 +2889,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2886,7 +2904,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2901,7 +2919,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2922,10 +2940,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2937,10 +2955,10 @@
         <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2952,10 +2970,10 @@
         <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3044,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -3038,10 +3056,10 @@
         <v>612408</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
@@ -3050,13 +3068,13 @@
         <v>1015</v>
       </c>
       <c r="N13" s="7">
-        <v>1108684</v>
+        <v>1108683</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>53</v>
@@ -3077,10 +3095,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3089,13 +3107,13 @@
         <v>2062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3104,13 +3122,13 @@
         <v>2062</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3170,7 @@
         <v>1017</v>
       </c>
       <c r="N15" s="7">
-        <v>1110746</v>
+        <v>1110745</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7ED436-25C1-4C9C-BF11-FFD3EC531EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A7E4F7-9EA6-4E01-8896-548CAD988A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE753E70-6337-4982-8C6C-6807D6352607}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D24F34C-EC93-4E7C-A62A-F85670AFA7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="163">
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2007 (Tasa respuesta: 14,82%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>98,24%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>96,36%</t>
   </si>
   <si>
-    <t>90,61%</t>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>9,46%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,7 +196,7 @@
     <t>98,07%</t>
   </si>
   <si>
-    <t>90,42%</t>
+    <t>88,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -205,76 +205,76 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>77,38%</t>
+    <t>79,89%</t>
   </si>
   <si>
     <t>96,24%</t>
   </si>
   <si>
-    <t>88,98%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>1,94%</t>
@@ -283,16 +283,16 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,13 +304,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,81%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,78%</t>
+    <t>98,72%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -325,13 +325,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -343,37 +343,25 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>95,1%</t>
@@ -397,7 +385,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,14%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>99,59%</t>
@@ -412,7 +400,7 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -421,7 +409,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -439,58 +427,58 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para la tensión arterial recetados en 2016 (Tasa respuesta: 15,54%)</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -517,13 +505,13 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,35%</t>
+    <t>99,43%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -532,13 +520,13 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,57%</t>
   </si>
 </sst>
 </file>
@@ -950,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94A72C0-A9AF-4A5F-9B36-679B4DF5C2A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB62B45E-B300-48BF-8B9E-5FA763D1D23E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1701,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE7E873-2AC7-4817-9090-39CCEBDFE84C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B03363C-7F42-48D9-A8D9-6E30BED25F15}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1983,7 +1971,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -1995,10 +1983,10 @@
         <v>144069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>53</v>
@@ -2010,10 +1998,10 @@
         <v>327843</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>53</v>
@@ -2034,10 +2022,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2046,13 +2034,13 @@
         <v>1002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2061,13 +2049,13 @@
         <v>1002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,7 +2126,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2153,7 +2141,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2168,7 +2156,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2189,10 +2177,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2204,10 +2192,10 @@
         <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2219,10 +2207,10 @@
         <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,10 +2278,10 @@
         <v>565176</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>53</v>
@@ -2305,13 +2293,13 @@
         <v>735255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>1197</v>
@@ -2320,13 +2308,13 @@
         <v>1300429</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2329,13 @@
         <v>977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2356,13 +2344,13 @@
         <v>3031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2371,13 +2359,13 @@
         <v>4009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9475A85-27FE-4554-A9DC-0F23BA0C6A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349783E6-B15C-4094-B53A-708D93C7FC79}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2469,7 +2457,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2579,7 +2567,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -2594,7 +2582,7 @@
         <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>53</v>
@@ -2606,10 +2594,10 @@
         <v>602152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>53</v>
@@ -2630,10 +2618,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2648,7 +2636,7 @@
         <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2657,13 +2645,13 @@
         <v>1089</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2722,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -2746,10 +2734,10 @@
         <v>206390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>53</v>
@@ -2761,10 +2749,10 @@
         <v>425298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>53</v>
@@ -2785,7 +2773,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>142</v>
@@ -2797,13 +2785,13 @@
         <v>973</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2812,13 +2800,13 @@
         <v>973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2877,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2904,7 +2892,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2919,7 +2907,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2940,10 +2928,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2955,10 +2943,10 @@
         <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2970,10 +2958,10 @@
         <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3032,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -3056,10 +3044,10 @@
         <v>612408</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
@@ -3068,13 +3056,13 @@
         <v>1015</v>
       </c>
       <c r="N13" s="7">
-        <v>1108683</v>
+        <v>1108684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>53</v>
@@ -3095,10 +3083,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3107,13 +3095,13 @@
         <v>2062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3122,13 +3110,13 @@
         <v>2062</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3158,7 @@
         <v>1017</v>
       </c>
       <c r="N15" s="7">
-        <v>1110745</v>
+        <v>1110746</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16B11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A7E4F7-9EA6-4E01-8896-548CAD988A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDAD345-9C32-4812-B6FE-077CD307357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D24F34C-EC93-4E7C-A62A-F85670AFA7E7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D9E0B98F-C16D-464C-A756-0DF459F7C649}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -938,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB62B45E-B300-48BF-8B9E-5FA763D1D23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C06D9B-13EB-42CF-BB9F-0AF9FB724582}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1689,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B03363C-7F42-48D9-A8D9-6E30BED25F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72F014D-0859-4FF9-B18C-FE376D46C3B2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2440,7 +2440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349783E6-B15C-4094-B53A-708D93C7FC79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F68BED9-9DC3-4B9F-91F3-8704C7D71072}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3056,7 +3056,7 @@
         <v>1015</v>
       </c>
       <c r="N13" s="7">
-        <v>1108684</v>
+        <v>1108683</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>156</v>
@@ -3158,7 +3158,7 @@
         <v>1017</v>
       </c>
       <c r="N15" s="7">
-        <v>1110746</v>
+        <v>1110745</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
